--- a/comein.xlsx
+++ b/comein.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ysnows/Documents/RnPj/untitled3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="37260" windowHeight="21140" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="V1-第一周" r:id="rId4"/>
+    <sheet name="V1-第一周" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="191">
   <si>
     <t>标题</t>
   </si>
@@ -283,6 +299,9 @@
     <t>2017-11-27 09:27:06</t>
   </si>
   <si>
+    <t>2017-12-11 08:41:33</t>
+  </si>
+  <si>
     <t>BP</t>
   </si>
   <si>
@@ -295,9 +314,15 @@
     <t>2017-11-27 09:29:03</t>
   </si>
   <si>
+    <t>2017-12-05 15:50:24</t>
+  </si>
+  <si>
     <t>2017-11-27 09:29:13</t>
   </si>
   <si>
+    <t>2017-12-11 08:41:32</t>
+  </si>
+  <si>
     <t>TA</t>
   </si>
   <si>
@@ -340,6 +365,9 @@
     <t>2017-11-30 13:34:33</t>
   </si>
   <si>
+    <t>2017-12-19 11:10:06</t>
+  </si>
+  <si>
     <t>周五</t>
   </si>
   <si>
@@ -367,6 +395,42 @@
     <t>2017-11-30 13:34:58</t>
   </si>
   <si>
+    <t>2017-12-07 17:34:43</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>2017-12-11 18:00:00</t>
+  </si>
+  <si>
+    <t>2017-12-11 08:41:55</t>
+  </si>
+  <si>
+    <t>2017-12-11 13:51:28</t>
+  </si>
+  <si>
+    <t>列表页报名时间显示（年月日 时分秒）</t>
+  </si>
+  <si>
+    <t>2017-12-11 13:21:54</t>
+  </si>
+  <si>
+    <t>2017-12-11 13:51:23</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>左晓飞(1119283981@qq.com)</t>
+  </si>
+  <si>
+    <t>2017-12-11 08:41:59</t>
+  </si>
+  <si>
+    <t>2017-12-11 14:14:55</t>
+  </si>
+  <si>
     <t>活动报名详情</t>
   </si>
   <si>
@@ -376,6 +440,9 @@
     <t>2017-11-30 13:44:42</t>
   </si>
   <si>
+    <t>2017-12-19 11:10:09</t>
+  </si>
+  <si>
     <t>2017-12-02 18:00:00</t>
   </si>
   <si>
@@ -388,6 +455,21 @@
     <t>2017-11-30 13:45:08</t>
   </si>
   <si>
+    <t>2017-12-11 15:50:26</t>
+  </si>
+  <si>
+    <t>2017-12-11 08:44:38</t>
+  </si>
+  <si>
+    <t>2017-12-12 09:24:57</t>
+  </si>
+  <si>
+    <t>2017-12-11 08:46:07</t>
+  </si>
+  <si>
+    <t>2017-12-11 17:09:52</t>
+  </si>
+  <si>
     <t>创建新的活动</t>
   </si>
   <si>
@@ -403,15 +485,30 @@
     <t>2017-12-02 17:34:25</t>
   </si>
   <si>
+    <t>2017-12-13 18:00:00</t>
+  </si>
+  <si>
     <t>2017-11-30 13:45:48</t>
   </si>
   <si>
+    <t>2017-12-13 17:51:01</t>
+  </si>
+  <si>
+    <t>2017-12-20 18:00:00</t>
+  </si>
+  <si>
+    <t>2017-12-19 11:10:32</t>
+  </si>
+  <si>
+    <t>2017-12-19 18:00:00</t>
+  </si>
+  <si>
+    <t>2017-12-19 11:10:53</t>
+  </si>
+  <si>
     <t>活动管理</t>
   </si>
   <si>
-    <t>2017-12-13 18:00:00</t>
-  </si>
-  <si>
     <t>2017-12-04 11:17:01</t>
   </si>
   <si>
@@ -424,12 +521,15 @@
     <t>2017-12-04 11:18:40</t>
   </si>
   <si>
-    <t>2017-12-11 18:00:00</t>
+    <t>2017-12-04 09:00:00</t>
   </si>
   <si>
     <t>2017-12-04 11:19:32</t>
   </si>
   <si>
+    <t>2017-12-04 17:45:39</t>
+  </si>
+  <si>
     <t>WXAPP</t>
   </si>
   <si>
@@ -442,9 +542,15 @@
     <t>2017-12-04 11:18:45</t>
   </si>
   <si>
+    <t>2017-12-05 09:00:00</t>
+  </si>
+  <si>
     <t>2017-12-04 11:19:59</t>
   </si>
   <si>
+    <t>2017-12-05 13:56:20</t>
+  </si>
+  <si>
     <t>2017-12-04 11:20:20</t>
   </si>
   <si>
@@ -460,20 +566,61 @@
     <t>2017-12-04 11:21:11</t>
   </si>
   <si>
+    <t>2017-12-13 16:41:10</t>
+  </si>
+  <si>
     <t>2017-12-04 11:21:23</t>
+  </si>
+  <si>
+    <t>微信注册登录</t>
+  </si>
+  <si>
+    <t>2017-12-04 13:50:41</t>
+  </si>
+  <si>
+    <t>2017-12-19 11:11:09</t>
+  </si>
+  <si>
+    <t>2017-12-04 10:00:00</t>
+  </si>
+  <si>
+    <t>2017-12-04 13:50:49</t>
+  </si>
+  <si>
+    <t>2017-12-04 13:54:30</t>
+  </si>
+  <si>
+    <t>2017-12-04 13:51:07</t>
+  </si>
+  <si>
+    <t>2017-12-08 14:29:41</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -506,7 +653,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -843,7 +990,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <dimension ref="A1:R57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
@@ -860,7 +1013,7 @@
     <col min="15" max="18" width="10" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +1069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -969,7 +1122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1025,7 +1178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1081,7 +1234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1137,7 +1290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1193,7 +1346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1249,7 +1402,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1305,7 +1458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1361,7 +1514,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1417,7 +1570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1473,7 +1626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -1529,7 +1682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1585,7 +1738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -1641,7 +1794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1697,7 +1850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -1753,7 +1906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1809,7 +1962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -1865,7 +2018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1921,7 +2074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1977,7 +2130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -2033,7 +2186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2089,7 +2242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
@@ -2124,10 +2277,10 @@
         <v>89</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>27</v>
@@ -2136,15 +2289,15 @@
         <v>28</v>
       </c>
       <c r="Q23" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>87</v>
@@ -2153,13 +2306,13 @@
         <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>19</v>
@@ -2177,13 +2330,13 @@
         <v>20</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>27</v>
@@ -2192,13 +2345,13 @@
         <v>28</v>
       </c>
       <c r="Q24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -2233,13 +2386,13 @@
         <v>20</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>27</v>
@@ -2254,9 +2407,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
@@ -2268,7 +2421,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>19</v>
@@ -2286,34 +2439,34 @@
         <v>20</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
@@ -2342,20 +2495,20 @@
         <v>20</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="Q27" s="2">
         <v>0</v>
       </c>
@@ -2363,12 +2516,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>31</v>
@@ -2380,7 +2533,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>19</v>
@@ -2398,19 +2551,19 @@
         <v>20</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -2419,9 +2572,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -2433,7 +2586,7 @@
         <v>19</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>19</v>
@@ -2451,266 +2604,269 @@
         <v>20</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>12</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Q29" s="2">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="2" t="s">
+      <c r="G31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P31" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Q31" s="2">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>19</v>
@@ -2728,19 +2884,19 @@
         <v>20</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q34" s="2">
         <v>0</v>
@@ -2749,9 +2905,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>19</v>
@@ -2763,7 +2919,7 @@
         <v>19</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>19</v>
@@ -2781,45 +2937,45 @@
         <v>20</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q35" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>19</v>
@@ -2837,19 +2993,19 @@
         <v>20</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q36" s="2">
         <v>0</v>
@@ -2858,413 +3014,413 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>7</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>19</v>
@@ -3282,7 +3438,7 @@
         <v>20</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>29</v>
@@ -3294,7 +3450,7 @@
         <v>27</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q44" s="2">
         <v>0</v>
@@ -3303,9 +3459,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>19</v>
@@ -3317,7 +3473,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>19</v>
@@ -3335,7 +3491,7 @@
         <v>20</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>29</v>
@@ -3347,33 +3503,33 @@
         <v>27</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q45" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>19</v>
@@ -3382,7 +3538,7 @@
         <v>21</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>23</v>
@@ -3391,7 +3547,7 @@
         <v>20</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>29</v>
@@ -3403,33 +3559,33 @@
         <v>27</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q46" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>19</v>
@@ -3447,19 +3603,19 @@
         <v>20</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q47" s="2">
         <v>0</v>
@@ -3468,8 +3624,563 @@
         <v>29</v>
       </c>
     </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>6</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>4</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>